--- a/RUDN/Importance/Varible_reg_in_Western Africa.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Western Africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
@@ -22,514 +22,541 @@
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: electricity  (% of households)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: dung (% of households)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Use of Intermittent Preventive Treatment of malaria, 2+ doses of SP/Fansidar (% of pregnant women)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
   </si>
   <si>
     <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Use of Intermittent Preventive Treatment of malaria, 2+ doses of SP/Fansidar (% of pregnant women)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
     <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
     <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
 </sst>
 </file>
@@ -887,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07734806835651398</v>
+        <v>0.07116788625717163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -911,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04788213595747948</v>
+        <v>0.05656934157013893</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -919,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03499079123139381</v>
+        <v>0.02554744482040405</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -927,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03130755200982094</v>
+        <v>0.02554744482040405</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -935,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02762430906295776</v>
+        <v>0.02372262813150883</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -943,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02394106797873974</v>
+        <v>0.02372262813150883</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -951,7 +978,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0220994483679533</v>
+        <v>0.02189780957996845</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -959,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02025782689452171</v>
+        <v>0.02189780957996845</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -967,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01841620542109013</v>
+        <v>0.01824817433953285</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -975,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01657458581030369</v>
+        <v>0.01459854003041983</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -983,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01473296526819468</v>
+        <v>0.01459854003041983</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -991,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01473296526819468</v>
+        <v>0.01277372241020203</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -999,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01289134472608566</v>
+        <v>0.01277372241020203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1007,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01104972418397665</v>
+        <v>0.01277372241020203</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1015,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01104972418397665</v>
+        <v>0.01277372241020203</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1023,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01104972418397665</v>
+        <v>0.01277372241020203</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1031,7 +1058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01104972418397665</v>
+        <v>0.01094890478998423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1039,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01104972418397665</v>
+        <v>0.01094890478998423</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1047,7 +1074,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01104972418397665</v>
+        <v>0.01094890478998423</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1055,7 +1082,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.009208102710545063</v>
+        <v>0.01094890478998423</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1063,7 +1090,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.009208102710545063</v>
+        <v>0.01094890478998423</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1071,7 +1098,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.009208102710545063</v>
+        <v>0.01094890478998423</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1079,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.009208102710545063</v>
+        <v>0.009124087169766426</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1087,7 +1114,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.009208102710545063</v>
+        <v>0.009124087169766426</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1095,7 +1122,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.009208102710545063</v>
+        <v>0.009124087169766426</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1103,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.009208102710545063</v>
+        <v>0.009124087169766426</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1111,7 +1138,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1119,7 +1146,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1127,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1135,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1143,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1151,7 +1178,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1159,7 +1186,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1167,7 +1194,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1175,7 +1202,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1183,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1191,7 +1218,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1199,7 +1226,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.007366482634097338</v>
+        <v>0.007299270015209913</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1207,7 +1234,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.007366482634097338</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1215,7 +1242,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.007366482634097338</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1223,7 +1250,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.007366482634097338</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1231,7 +1258,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1239,7 +1266,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1247,7 +1274,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1255,7 +1282,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1263,7 +1290,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1271,7 +1298,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1279,7 +1306,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1287,7 +1314,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1295,7 +1322,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1303,7 +1330,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1311,7 +1338,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1319,7 +1346,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1327,7 +1354,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1335,7 +1362,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1343,7 +1370,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1351,7 +1378,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1359,7 +1386,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1367,7 +1394,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1375,7 +1402,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1383,7 +1410,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1391,7 +1418,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1399,7 +1426,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1407,7 +1434,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1415,7 +1442,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.005524862091988325</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1423,7 +1450,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.003683241317048669</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1431,7 +1458,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.003683241317048669</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1439,7 +1466,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.003683241317048669</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1447,7 +1474,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.003683241317048669</v>
+        <v>0.005474452394992113</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1455,7 +1482,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1463,7 +1490,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1471,7 +1498,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1479,7 +1506,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1487,7 +1514,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1495,7 +1522,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1503,7 +1530,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1511,7 +1538,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1519,7 +1546,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1527,7 +1554,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1535,7 +1562,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1543,7 +1570,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1551,7 +1578,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1559,7 +1586,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1567,7 +1594,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1575,7 +1602,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1583,7 +1610,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1591,7 +1618,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1599,7 +1626,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1607,7 +1634,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1615,7 +1642,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1623,7 +1650,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1631,7 +1658,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1639,7 +1666,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1647,7 +1674,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1655,7 +1682,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1663,7 +1690,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1671,7 +1698,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1679,7 +1706,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1687,7 +1714,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003683241317048669</v>
+        <v>0.003649635007604957</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1695,7 +1722,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003683241317048669</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1703,7 +1730,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.003683241317048669</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1711,7 +1738,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1719,7 +1746,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1727,7 +1754,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1735,7 +1762,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1743,7 +1770,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1751,7 +1778,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1759,7 +1786,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1767,7 +1794,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1775,7 +1802,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1783,7 +1810,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1791,7 +1818,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1799,7 +1826,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1807,7 +1834,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1815,7 +1842,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1823,7 +1850,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1831,7 +1858,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1839,7 +1866,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1847,7 +1874,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1855,7 +1882,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1863,7 +1890,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1871,7 +1898,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1879,7 +1906,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1887,7 +1914,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1895,7 +1922,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1903,7 +1930,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1911,7 +1938,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1919,7 +1946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1927,7 +1954,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1935,7 +1962,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1943,7 +1970,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1951,7 +1978,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1959,7 +1986,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1967,7 +1994,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1975,7 +2002,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1983,7 +2010,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1991,7 +2018,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1999,7 +2026,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2007,7 +2034,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2015,7 +2042,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2023,7 +2050,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2031,7 +2058,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2039,7 +2066,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2047,7 +2074,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2055,7 +2082,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2063,7 +2090,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2071,7 +2098,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2079,7 +2106,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2087,7 +2114,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2095,7 +2122,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2103,7 +2130,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2111,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2119,7 +2146,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2127,7 +2154,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2135,7 +2162,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2143,7 +2170,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2151,7 +2178,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2159,7 +2186,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2167,7 +2194,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2175,7 +2202,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2183,7 +2210,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2191,7 +2218,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2199,7 +2226,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2207,7 +2234,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2215,7 +2242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2223,7 +2250,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2231,7 +2258,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2239,7 +2266,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2247,7 +2274,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2255,7 +2282,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2263,7 +2290,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2271,7 +2298,79 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.001841620658524334</v>
+        <v>0.001824817503802478</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.001824817503802478</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.001824817503802478</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.001824817503802478</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.001824817503802478</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.001824817503802478</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.001824817503802478</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.001824817503802478</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.001824817503802478</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.001824817503802478</v>
       </c>
     </row>
   </sheetData>
